--- a/Organisatorisch/Scrum.xlsx
+++ b/Organisatorisch/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Desktop\8.Semester SYP\UNTAN\Untan\Organisatorisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B62A7-6CEC-4A81-AA15-2145584BAC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD89B97-6276-4758-98CB-B3C870C5F4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="181">
   <si>
     <t>Rollen</t>
   </si>
@@ -554,9 +554,6 @@
     <t>Überarbeitung</t>
   </si>
   <si>
-    <t>Bearbeitung</t>
-  </si>
-  <si>
     <t>Erstellung Git Repository</t>
   </si>
   <si>
@@ -642,6 +639,66 @@
   </si>
   <si>
     <t>Retrospektive?</t>
+  </si>
+  <si>
+    <t>Datenbanküberarbeitung</t>
+  </si>
+  <si>
+    <t>Datenbankstrukture überprüfen</t>
+  </si>
+  <si>
+    <t>eine saubere Datenbankstruktur</t>
+  </si>
+  <si>
+    <t>die Datenbank stabil läuft.</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>UI farblich gestallten</t>
+  </si>
+  <si>
+    <t>ein ansprechendes Frontenddesign.</t>
+  </si>
+  <si>
+    <t>ein Kunde sich gerne diese Seite ansieht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonke </t>
+  </si>
+  <si>
+    <t>Material einarbeiten</t>
+  </si>
+  <si>
+    <t>das Angular Material Design.</t>
+  </si>
+  <si>
+    <t>das UI auch Zeitgerecht dargestellt wird.</t>
+  </si>
+  <si>
+    <t>Datenbanksätze</t>
+  </si>
+  <si>
+    <t>Datenbank befüllen</t>
+  </si>
+  <si>
+    <t>mehrere Datensätze zur Verfügung stellen.</t>
+  </si>
+  <si>
+    <t>zu beginn viele Datensätze vorhanden sind.</t>
+  </si>
+  <si>
+    <t>Backend Datensätze</t>
+  </si>
+  <si>
+    <t>Datensätze in DB importieren</t>
+  </si>
+  <si>
+    <t>Datensätze in die DB importieren.</t>
+  </si>
+  <si>
+    <t>die DB die geforderten Datensätze liefert.</t>
   </si>
 </sst>
 </file>
@@ -1194,17 +1251,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D83E1B6-CE9D-46D9-9791-8591E37D96C9}">
   <dimension ref="B7:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +1277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -1252,10 +1309,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1274,26 +1331,27 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1322,18 +1380,18 @@
         <v>35</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -1357,18 +1415,18 @@
         <v>40</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -1392,18 +1450,18 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -1427,13 +1485,13 @@
         <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1462,13 +1520,13 @@
         <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1497,13 +1555,13 @@
         <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1532,13 +1590,13 @@
         <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1567,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1602,13 +1660,13 @@
         <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1637,13 +1695,13 @@
         <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1672,13 +1730,13 @@
         <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1707,13 +1765,13 @@
         <v>40</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1742,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1777,13 +1835,13 @@
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1812,13 +1870,13 @@
         <v>40</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1847,13 +1905,13 @@
         <v>40</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1882,13 +1940,13 @@
         <v>40</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1917,13 +1975,13 @@
         <v>40</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1952,13 +2010,13 @@
         <v>40</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1987,13 +2045,13 @@
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2022,91 +2080,189 @@
         <v>40</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
+      <c r="B27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2118,7 +2274,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2142,31 +2298,31 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -2183,21 +2339,21 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -2215,15 +2371,15 @@
         <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -2241,15 +2397,15 @@
         <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>43</v>
@@ -2267,10 +2423,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2293,10 +2449,10 @@
         <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2319,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2345,10 +2501,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2371,10 +2527,10 @@
         <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2397,10 +2553,10 @@
         <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2423,10 +2579,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2449,10 +2605,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2475,10 +2631,10 @@
         <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2501,10 +2657,10 @@
         <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2527,10 +2683,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2553,10 +2709,10 @@
         <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2579,10 +2735,10 @@
         <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2605,10 +2761,10 @@
         <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2631,10 +2787,10 @@
         <v>41</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2657,10 +2813,10 @@
         <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2683,10 +2839,10 @@
         <v>41</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2700,7 +2856,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3">
         <v>0.5</v>
@@ -2709,7 +2865,137 @@
         <v>41</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2723,38 +3009,38 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:P23"/>
+  <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E2" s="21"/>
       <c r="F2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="21"/>
       <c r="N2" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -2768,16 +3054,16 @@
         <v>35</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>36</v>
@@ -2786,7 +3072,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="13">
         <v>1</v>
@@ -2804,12 +3090,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -2818,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3">
         <v>9</v>
@@ -2846,18 +3132,18 @@
         <v>0</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -2866,7 +3152,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3">
         <v>18</v>
@@ -2894,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>43</v>
@@ -2914,7 +3200,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="3">
         <v>27</v>
@@ -2942,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2962,7 +3248,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3">
         <v>7</v>
@@ -2990,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3010,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
@@ -3038,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3058,7 +3344,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3">
         <v>7</v>
@@ -3086,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3106,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
@@ -3134,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3154,7 +3440,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3">
         <v>9</v>
@@ -3182,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3202,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="3">
         <v>9</v>
@@ -3230,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3250,7 +3536,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="3">
         <v>9</v>
@@ -3278,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3298,7 +3584,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -3326,13 +3612,13 @@
         <v>1</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3346,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3">
         <v>8</v>
@@ -3374,13 +3660,13 @@
         <v>2.6</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3394,7 +3680,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="3">
         <v>8</v>
@@ -3422,13 +3708,13 @@
         <v>2.6</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3442,7 +3728,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="3">
         <v>8</v>
@@ -3470,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3490,7 +3776,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="3">
         <v>9</v>
@@ -3500,25 +3786,31 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9</v>
+      </c>
       <c r="K18" s="3">
         <v>9</v>
       </c>
       <c r="L18" s="3">
         <v>6</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
       <c r="O18" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3532,7 +3824,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="3">
         <v>6</v>
@@ -3542,25 +3834,31 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
       <c r="K19" s="3">
         <v>6</v>
       </c>
       <c r="L19" s="3">
         <v>4</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
       <c r="O19" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3574,7 +3872,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="3">
         <v>6</v>
@@ -3584,25 +3882,31 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6</v>
+      </c>
       <c r="K20" s="3">
         <v>6</v>
       </c>
       <c r="L20" s="3">
         <v>4</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
       <c r="O20" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3616,7 +3920,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -3626,25 +3930,31 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
       <c r="K21" s="3">
         <v>3</v>
       </c>
       <c r="L21" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
       <c r="O21" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3658,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="3">
         <v>2.5</v>
@@ -3668,25 +3978,31 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2.5</v>
+      </c>
       <c r="K22" s="3">
         <v>2.5</v>
       </c>
       <c r="L22" s="3">
         <v>1.7</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
       <c r="O22" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3700,7 +4016,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="3">
         <v>0.5</v>
@@ -3722,16 +4038,238 @@
         <v>0</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3748,60 +4286,60 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3836,7 +4374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3871,7 +4409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3906,7 +4444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -3941,7 +4479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3976,7 +4514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3986,37 +4524,55 @@
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="25">
         <v>44265</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>27</v>
+      </c>
       <c r="H10" s="3">
         <v>6</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="25">
         <v>44272</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="25">
         <v>44286</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="3">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
@@ -4036,15 +4592,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>126</v>
       </c>
@@ -4056,7 +4612,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>103</v>
       </c>
@@ -4068,7 +4624,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
@@ -4080,7 +4636,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
@@ -4092,7 +4648,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
@@ -4104,7 +4660,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
@@ -4115,22 +4671,22 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="12"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17" s="12"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" s="12"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" s="12"/>
       <c r="J19" s="19"/>
     </row>
@@ -4150,20 +4706,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>54</v>
@@ -4192,7 +4748,7 @@
       <c r="N2" s="4"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>56</v>
@@ -4220,7 +4776,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -4245,7 +4801,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -4270,7 +4826,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4291,7 +4847,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4312,7 +4868,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4329,7 +4885,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4346,7 +4902,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4361,7 +4917,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4376,7 +4932,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4391,7 +4947,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4406,7 +4962,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4421,7 +4977,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4436,7 +4992,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4451,7 +5007,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4466,7 +5022,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4481,7 +5037,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4496,7 +5052,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4511,7 +5067,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4526,7 +5082,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4541,7 +5097,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4556,7 +5112,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -4569,7 +5125,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +5139,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4597,7 +5153,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
